--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -1138,7 +1138,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -693,7 +693,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve">12:30 PM START </t>
+          <t xml:space="preserve">12:00 PM START </t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       <c r="V14" t="inlineStr">
         <is>
           <t>*MUST USE THE MEET*  -----&gt;
-12:00 PM MEET</t>
+11:30 AM MEET</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>@ Store (Noon arrival)</t>
+          <t>@ Store (10:30 am arrival)</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -693,7 +693,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve">12:00 PM START </t>
+          <t xml:space="preserve">11:30 AM START </t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       <c r="V14" t="inlineStr">
         <is>
           <t>*MUST USE THE MEET*  -----&gt;
-11:30 AM MEET</t>
+11:15 AM MEET</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3084,21 +3084,9 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3140,21 +3128,9 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3193,7 +3169,11 @@
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3245,7 +3225,11 @@
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>SCAN-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3296,7 +3280,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>ROETTGERS BROWN DEER ARC</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3352,7 +3336,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>5125 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3392,7 +3376,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>ROETTGERS BROWN DEER ARC</t>
+          <t>https://maps.app.goo.gl/DMBiAk5PFQCgFPED7</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3430,11 +3414,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>5125 W BROWN DEER RD</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3465,13 +3445,21 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/DMBiAk5PFQCgFPED7</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3501,8 +3489,16 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3539,19 +3535,15 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3585,16 +3577,8 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3629,16 +3613,8 @@
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -1211,7 +1211,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1267,10 +1267,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Altima</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -1323,14 +1327,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Altima</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -1391,10 +1391,14 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Red Van</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -1443,14 +1447,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Red Van</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -3084,9 +3084,21 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3169,11 +3181,7 @@
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3227,7 +3235,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3280,7 +3288,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>ROETTGERS BROWN DEER ARC</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3336,7 +3344,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>5125 W BROWN DEER RD</t>
+          <t>ROETTGERS BROWN DEER ARC</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3376,7 +3384,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/DMBiAk5PFQCgFPED7</t>
+          <t>5125 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3414,7 +3422,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/DMBiAk5PFQCgFPED7</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3445,21 +3457,9 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3491,15 +3491,19 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3535,12 +3539,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3577,8 +3581,16 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -1653,7 +1653,11 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>KIM FROM RX SAID TO ENTER THROUGH THE MAIN ENTRANCE AND SHE WILL MEET YOU THERE</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
@@ -1709,21 +1713,9 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -1761,9 +1753,21 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -1838,11 +1842,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>7:30 AM MEET WATERTOWN PLANK PNR</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -1888,7 +1888,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>7:30 AM MEET WATERTOWN PLANK PNR</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1053, SLINGER</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2016,7 +2016,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1061 EAST COMMERCE BOULEVARD, SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1053, SLINGER</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2060,7 +2060,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7iYLLr5ukoS2</t>
+          <t>1061 EAST COMMERCE BOULEVARD, SUITE 100</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2098,7 +2098,11 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7iYLLr5ukoS2</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2145,22 +2149,9 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -2200,15 +2191,20 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -2263,8 +2259,16 @@
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2367,11 +2371,7 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2439,7 +2439,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>ROETTGERS SHOREWOOD ARC</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2564,7 +2564,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>1513 E CAPITOL DRIVE</t>
+          <t>ROETTGERS SHOREWOOD ARC</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2624,7 +2624,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
+          <t>1513 E CAPITOL DRIVE</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2686,7 +2686,11 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -2738,21 +2742,9 @@
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -2806,15 +2798,19 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -2870,12 +2866,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2932,8 +2928,16 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -2499,7 +2499,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>White Camry available, Equip, (train w/ Jeremiah on Modas)</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -2992,9 +2992,21 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store (bring Modas equip)</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -2050,11 +2050,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Grafton meet at 5:00 am - Carlie / Tanner / Trevor</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2254,8 +2250,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>@ Store
-From Grafton</t>
+          <t>No meet</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -2738,7 +2733,7 @@
       <c r="O46" t="inlineStr">
         <is>
           <t>@ Store
-From Grafton</t>
+No meet</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2792,7 +2787,7 @@
       <c r="O47" t="inlineStr">
         <is>
           <t>@ Store
-From Grafton</t>
+No meet</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,15 +543,35 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -571,16 +591,40 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags1-3</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 3</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -603,12 +647,28 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -647,55 +707,27 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>4:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11:30 AM START </t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -705,7 +737,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -717,7 +749,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -725,7 +757,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -733,7 +765,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -741,7 +773,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -749,7 +781,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t xml:space="preserve">11:30 AM START </t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -761,15 +793,19 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #201, CEDARBURG</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -777,7 +813,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -785,7 +821,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -793,7 +829,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -801,7 +837,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -813,7 +849,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>W61 N286 WASHINGTON AVE</t>
+          <t>PIGGLY WIGGLY #201, CEDARBURG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -821,7 +857,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -829,7 +865,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -837,7 +873,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -845,7 +881,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1510, CHICAGO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -853,7 +889,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
+          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -865,7 +901,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QamMdWSr16N2</t>
+          <t>W61 N286 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -873,7 +909,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -881,7 +917,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -889,7 +925,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -897,7 +933,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>836 W WELLINGTON AVE, SUITE 1801</t>
+          <t>AURORA OUTPATIENT RX #1510, CHICAGO</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -905,7 +941,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CLqauUgd2u12</t>
+          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -915,13 +951,17 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/QamMdWSr16N2</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -929,7 +969,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -937,7 +977,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -945,7 +985,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/WtfYT8XRgDrGBKx88</t>
+          <t>836 W WELLINGTON AVE, SUITE 1801</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -953,13 +993,61 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>*SEE NOTES TO RIGHT*</t>
+          <t>https://goo.gl/maps/CLqauUgd2u12</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
+      <c r="Z13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/WtfYT8XRgDrGBKx88</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>*SEE NOTES TO RIGHT*</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>NO STREET PARKING-
 USE TIPP ST PARK N RIDE W156 N9277 TIPP ST, MENOMONEE FALLS
@@ -969,84 +1057,27 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>HAS PAID PARKING.  PARK IN WELLINGTON STRUCTURE ENTER THROUGH MAIN ENTRANCE (NEAR EMERG)</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>*MUST USE THE MEET*  -----&gt;
-11:15 AM MEET</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-    </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1054,7 +1085,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1062,17 +1093,26 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>HAS PAID PARKING.  PARK IN WELLINGTON STRUCTURE ENTER THROUGH MAIN ENTRANCE (NEAR EMERG)</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>*MUST USE THE MEET*  -----&gt;
+11:15 AM MEET</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1081,12 +1121,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1094,7 +1134,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1102,7 +1142,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1110,42 +1150,18 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store (10:30 am arrival)</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
@@ -1153,12 +1169,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1166,7 +1182,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1174,7 +1190,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1182,39 +1198,42 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>@ Store (10:30 am arrival)</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -1222,12 +1241,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1235,7 +1254,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1243,7 +1262,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1251,30 +1270,39 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Altima</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -1282,12 +1310,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1295,7 +1323,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1303,7 +1331,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1311,7 +1339,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1322,15 +1350,19 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Altima</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -1338,24 +1370,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>NasZire</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1363,7 +1391,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1371,47 +1399,51 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Red Van</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1419,7 +1451,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1427,7 +1459,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1435,22 +1467,26 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Red Van</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -1463,7 +1499,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1471,7 +1507,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1479,7 +1515,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1487,19 +1523,19 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1515,7 +1551,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1523,31 +1559,35 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>818 FORREST LANE, SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1561,49 +1601,41 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/34AqDr4Gxcn8xkqSA</t>
+          <t>818 FORREST LANE, SUITE 101</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1616,65 +1648,53 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>KIM FROM RX SAID TO ENTER THROUGH THE MAIN ENTRANCE AND SHE WILL MEET YOU THERE</t>
+          <t>https://goo.gl/maps/34AqDr4Gxcn8xkqSA</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -1686,40 +1706,63 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>KIM FROM RX SAID TO ENTER THROUGH THE MAIN ENTRANCE AND SHE WILL MEET YOU THERE</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -1731,20 +1774,25 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1753,21 +1801,9 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -1781,25 +1817,45 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK PNR</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -1817,26 +1873,14 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK PNR</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1858,39 +1902,35 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET BAYSHORE PARK AND RIDE</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>7:30 AM MEET WATERTOWN PLANK PNR</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -1908,19 +1948,19 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET BAYSHORE PARK AND RIDE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1928,7 +1968,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -1936,7 +1976,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>7:30 AM MEET WATERTOWN PLANK PNR</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1956,19 +1996,27 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2518 W WASHINGTON STREET</t>
+          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -1976,7 +2024,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -1996,7 +2044,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #330, KIEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2008,7 +2056,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UGfMgfcMtR22</t>
+          <t>2518 W WASHINGTON STREET</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2016,7 +2064,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1053, SLINGER</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2036,27 +2084,27 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>80 E PARK AVE</t>
+          <t>PIGGLY WIGGLY #330, KIEL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/UGfMgfcMtR22</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1061 EAST COMMERCE BOULEVARD, SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1053, SLINGER</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2076,7 +2124,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qVVbXbSua7m</t>
+          <t>80 E PARK AVE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2084,7 +2132,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">5:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2096,7 +2144,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7iYLLr5ukoS2</t>
+          <t>1061 EAST COMMERCE BOULEVARD, SUITE 100</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2116,7 +2164,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
+          <t>https://goo.gl/maps/qVVbXbSua7m</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2124,29 +2172,21 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7iYLLr5ukoS2</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2162,45 +2202,40 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>FEW RESETS-REMAPPED</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>MARIANO'S #542 +RX, BANNOCKBURN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -2214,57 +2249,46 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2999 WAUKEGAN RD</t>
+          <t>MARIANO'S #542 +RX, BANNOCKBURN</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>No meet</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -2280,38 +2304,54 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iQpQKzHwQVT2</t>
+          <t>2999 WAUKEGAN RD</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>No meet</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2328,42 +2368,35 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iQpQKzHwQVT2</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -2383,60 +2416,45 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+White Camry</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
-Rx</t>
+Sante Fe,
+Supv Rx</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2453,12 +2471,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2469,32 +2487,42 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2513,12 +2541,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2529,29 +2557,24 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2559,7 +2582,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>ROETTGERS SHOREWOOD ARC</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2578,12 +2601,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2594,24 +2617,29 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2619,7 +2647,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>1513 E CAPITOL DRIVE</t>
+          <t>ROETTGERS SHOREWOOD ARC</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2638,12 +2666,12 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2654,28 +2682,24 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2683,7 +2707,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
+          <t>1513 E CAPITOL DRIVE</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2700,18 +2724,30 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2722,23 +2758,22 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store
-No meet</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2759,29 +2794,28 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2791,21 +2825,9 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip, (train w/ Jeremiah on Modas)</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -2820,56 +2842,58 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store
+No meet</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip, (train w/ Jeremiah on Modas)</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -2886,19 +2910,19 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2909,12 +2933,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -2925,12 +2949,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2950,19 +2974,19 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #142, SUSSEX</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2973,12 +2997,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -2989,19 +3013,15 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store (bring Modas equip)</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3018,19 +3038,19 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>N63 W23735 MAIN ST</t>
+          <t>PIGGLY WIGGLY #142, SUSSEX</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3041,12 +3061,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3055,9 +3075,21 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store (bring Modas equip)</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3074,19 +3106,19 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
+          <t>N63 W23735 MAIN ST</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3097,12 +3129,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3130,19 +3162,19 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PBJ MOVED TO AISLE 5 - NOT REMAPPED</t>
+          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3151,9 +3183,21 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3172,17 +3216,21 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PBJ MOVED TO AISLE 5 - NOT REMAPPED</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3211,30 +3259,18 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3244,11 +3280,7 @@
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3269,37 +3301,40 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3322,40 +3357,37 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>ROETTGERS BROWN DEER ARC</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3378,24 +3410,40 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5125 W BROWN DEER RD</t>
+          <t>ROETTGERS BROWN DEER ARC</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3418,12 +3466,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3435,7 +3483,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/DMBiAk5PFQCgFPED7</t>
+          <t>5125 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3456,20 +3504,28 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/DMBiAk5PFQCgFPED7</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3495,26 +3551,14 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3533,32 +3577,32 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START  </t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>PICK #416, WAUWATOSA - WALNUT</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3579,7 +3623,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
+          <t xml:space="preserve">6:00 AM START  </t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3587,19 +3631,19 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1717 N MAYFAIR ROAD</t>
+          <t>PICK #416, WAUWATOSA - WALNUT</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3623,7 +3667,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1194, MILWAUKEE</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3631,13 +3675,21 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/96AWc1YH6do</t>
+          <t>1717 N MAYFAIR ROAD</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3659,7 +3711,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3355 W FOREST HOME AVE</t>
+          <t>AURORA OUTPATIENT RX #1194, MILWAUKEE</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3667,7 +3719,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Grafton meet at 5:15 am - Carlie / Tanner / Trevor</t>
+          <t>https://goo.gl/maps/96AWc1YH6do</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3695,13 +3747,17 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nyTEMnH2h4tpY6i79</t>
+          <t>3355 W FOREST HOME AVE</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Grafton meet at 5:15 am - Carlie / Tanner / Trevor</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -3725,24 +3781,16 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nyTEMnH2h4tpY6i79</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -3764,35 +3812,23 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -3816,21 +3852,37 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -3858,19 +3910,15 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -3893,24 +3941,24 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>4:00 AM MEET WATERTOWN PLANK PNR</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -3935,19 +3983,19 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START   </t>
+          <t>4:00 AM MEET WATERTOWN PLANK PNR</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3975,19 +4023,19 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">6:00 AM START   </t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4015,19 +4063,19 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1300 WAUTOMA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4055,19 +4103,19 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>900 E DIVISION ST</t>
+          <t>AURORA OUTPATIENT RX #1300 WAUTOMA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4095,19 +4143,19 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JhUR6bvog6YmBrm48</t>
+          <t>900 E DIVISION ST</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4135,26 +4183,22 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NEED SCANNER HOODS FOR THIS STORE</t>
+          <t>https://goo.gl/maps/JhUR6bvog6YmBrm48</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -4177,17 +4221,21 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NEED SCANNER HOODS FOR THIS STORE</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4216,36 +4264,23 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4271,24 +4306,29 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4317,18 +4357,26 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4363,12 +4411,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4398,16 +4446,24 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -4432,7 +4488,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -4456,6 +4512,38 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -1960,7 +1960,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -4195,10 +4195,14 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -4235,7 +4239,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4275,12 +4279,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4328,7 +4332,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4376,7 +4380,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4416,7 +4420,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4449,21 +4453,9 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -572,7 +572,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Milwaukee Schedule.xlsx
@@ -1056,8 +1056,8 @@
           <t>NO STREET PARKING-
 USE TIPP ST PARK N RIDE W156 N9277 TIPP ST, MENOMONEE FALLS
 NEED TO USE MODAS HERE-SET LIMITS 1,000 ALERT
-SUPERVISOR-ARRIVE AT 12:00 PM TO HANG AREA TAGS-PRIORS DO NOT MATTER-TAG LOCATIONS SEQUENTIALLY THROUGH OUT THE SITE(THEY KEEP MOVING RACKS SO VERY HARD TO MATCH UP THE PRIORS)
-HALF AND FULL-EXCEPT OVER 1,000 THEN BY 10TH'S.  AUDIT TRAIL FOR EVERY SECTION A MUST-HAVE COUNTERS POST AUDIT TRAIL PRIOR TO STARING NEXT LOCATION.</t>
+SUPERVISOR-ARRIVE AT 10:30 AM TO HANG AREA TAGS-PRIORS DO NOT MATTER-TAG LOCATIONS SEQUENTIALLY THROUGH OUT THE SITE(THEY KEEP MOVING RACKS SO VERY HARD TO MATCH UP THE PRIORS)
+HALF AND FULL-EXCEPT OVER 1,000 THEN BY 10TH'S.  AUDIT TRAIL FOR EVERY SECTION A MUST-HAVE COUNTERS POST AUDIT TRAIL PRIOR TO STARTING NEXT LOCATION.</t>
         </is>
       </c>
     </row>
